--- a/Census_2011_MSOA/individual/Household_Compositions.xlsx
+++ b/Census_2011_MSOA/individual/Household_Compositions.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imran\Desktop\Oxford\Code\SyntheticPopulation\Diff-SynPoP\Census_2011_MSOA\individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F0387-3677-4DB7-99EE-EBD7344E6E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D2BC53-27E8-42D8-BCA1-A7F20A7CA2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="201">
   <si>
     <t>All categories: Household composition</t>
   </si>
@@ -556,6 +557,75 @@
   </si>
   <si>
     <t xml:space="preserve"> Household Composition: One person household: Aged 65 and over</t>
+  </si>
+  <si>
+    <t>1PE</t>
+  </si>
+  <si>
+    <t>1PA</t>
+  </si>
+  <si>
+    <t>1FE</t>
+  </si>
+  <si>
+    <t>1FM</t>
+  </si>
+  <si>
+    <t>1FC</t>
+  </si>
+  <si>
+    <t>1FM-0C</t>
+  </si>
+  <si>
+    <t>1FM-1C</t>
+  </si>
+  <si>
+    <t>1FM-nC</t>
+  </si>
+  <si>
+    <t>1FM-nA</t>
+  </si>
+  <si>
+    <t>1FC-0C</t>
+  </si>
+  <si>
+    <t>1FC-1C</t>
+  </si>
+  <si>
+    <t>1FC-nC</t>
+  </si>
+  <si>
+    <t>1FC-nA</t>
+  </si>
+  <si>
+    <t>1FL</t>
+  </si>
+  <si>
+    <t>1FL-1C</t>
+  </si>
+  <si>
+    <t>1FL-nC</t>
+  </si>
+  <si>
+    <t>1FL-nA</t>
+  </si>
+  <si>
+    <t>1H-1C</t>
+  </si>
+  <si>
+    <t>1H-nC</t>
+  </si>
+  <si>
+    <t>1H-nA</t>
+  </si>
+  <si>
+    <t>1H-nE</t>
+  </si>
+  <si>
+    <t>Household Composition Description</t>
+  </si>
+  <si>
+    <t>Houehold Composition</t>
   </si>
 </sst>
 </file>
@@ -1131,9 +1201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1171,7 +1241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1277,7 +1347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1419,7 +1489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1429,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView topLeftCell="O14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23:AA23"/>
     </sheetView>
   </sheetViews>
@@ -10258,8 +10328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -10913,4 +10983,199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035B3BEB-20DE-4594-97F0-54AA1217DBBD}">
+  <dimension ref="B1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="2" max="2" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>